--- a/Test copy.xlsx
+++ b/Test copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jwli/Documents/GitProjects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE42469-566D-144A-873C-473C42B16821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE59119C-BAAA-CA48-AA9B-47EF19B8C1A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20380" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{C8DF5F6E-52DC-F64E-9178-C77759EE04BC}"/>
   </bookViews>
@@ -377,9 +377,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1963A-5118-9C43-A8B2-26EB0D712426}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -388,6 +390,11 @@
         <v>1111</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>222222</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
